--- a/biology/Médecine/Acanthocytose/Acanthocytose.xlsx
+++ b/biology/Médecine/Acanthocytose/Acanthocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acanthocytose rend les globules rouges déformés, rigides et hérissés d'épines[1] (acanthos = épine en grec ancien). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acanthocytose rend les globules rouges déformés, rigides et hérissés d'épines (acanthos = épine en grec ancien). 
 Elle est due à l'accumulation d'une lipoprotéine mutée, entrainant un excès de cholestérol dans la membrane des hématies. Celles-ci vont alors être détectées lors de leur passage dans la rate et vont être détruites, ce qui provoque une anémie.
 Anomalie constitutionnelle associée à un métabolisme anormal des lipides : les acides gras libres sont hémolysants et lorsqu'ils se fixent en grande quantité sur la membrane érythrocytaire, les globules rouges deviennent des acanthocytes. Ceci peut s'observer :
 dans l'anémie hémolytique des brûlés, où une grande quantité d'acides gras non-estérifiés est libérée par le tissu adipeux (l'hémolyse affecte donc même les globules rouges qui n'ont pas eux-mêmes été échauffés) ;
